--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.521235</v>
+        <v>0.524747</v>
       </c>
       <c r="H2">
-        <v>1.563705</v>
+        <v>1.574241</v>
       </c>
       <c r="I2">
-        <v>0.4275250678386636</v>
+        <v>0.4550842239457913</v>
       </c>
       <c r="J2">
-        <v>0.4275250678386636</v>
+        <v>0.4550842239457914</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>26.50086766666666</v>
+        <v>0.3621303333333334</v>
       </c>
       <c r="N2">
-        <v>79.50260299999999</v>
+        <v>1.086391</v>
       </c>
       <c r="O2">
-        <v>0.4235020211837832</v>
+        <v>0.020493845787098</v>
       </c>
       <c r="P2">
-        <v>0.4235020211837832</v>
+        <v>0.020493845787098</v>
       </c>
       <c r="Q2">
-        <v>13.813179758235</v>
+        <v>0.1900268060256667</v>
       </c>
       <c r="R2">
-        <v>124.318617824115</v>
+        <v>1.710241254231</v>
       </c>
       <c r="S2">
-        <v>0.181057730336408</v>
+        <v>0.009326425905686221</v>
       </c>
       <c r="T2">
-        <v>0.181057730336408</v>
+        <v>0.009326425905686221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.521235</v>
+        <v>0.524747</v>
       </c>
       <c r="H3">
-        <v>1.563705</v>
+        <v>1.574241</v>
       </c>
       <c r="I3">
-        <v>0.4275250678386636</v>
+        <v>0.4550842239457913</v>
       </c>
       <c r="J3">
-        <v>0.4275250678386636</v>
+        <v>0.4550842239457914</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.627583</v>
       </c>
       <c r="O3">
-        <v>0.03530443897620913</v>
+        <v>0.1250237381782363</v>
       </c>
       <c r="P3">
-        <v>0.03530443897620913</v>
+        <v>0.1250237381782363</v>
       </c>
       <c r="Q3">
-        <v>1.151509408335</v>
+        <v>1.159268098833666</v>
       </c>
       <c r="R3">
-        <v>10.363584675015</v>
+        <v>10.433412889503</v>
       </c>
       <c r="S3">
-        <v>0.01509353266830977</v>
+        <v>0.05689633086364448</v>
       </c>
       <c r="T3">
-        <v>0.01509353266830977</v>
+        <v>0.05689633086364448</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.524747</v>
+      </c>
+      <c r="H4">
+        <v>1.574241</v>
+      </c>
+      <c r="I4">
+        <v>0.4550842239457913</v>
+      </c>
+      <c r="J4">
+        <v>0.4550842239457914</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.521235</v>
-      </c>
-      <c r="H4">
-        <v>1.563705</v>
-      </c>
-      <c r="I4">
-        <v>0.4275250678386636</v>
-      </c>
-      <c r="J4">
-        <v>0.4275250678386636</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.3149826666666667</v>
+        <v>15.09887433333333</v>
       </c>
       <c r="N4">
-        <v>0.944948</v>
+        <v>45.296623</v>
       </c>
       <c r="O4">
-        <v>0.005033638809456007</v>
+        <v>0.8544824160346657</v>
       </c>
       <c r="P4">
-        <v>0.005033638809456007</v>
+        <v>0.8544824160346657</v>
       </c>
       <c r="Q4">
-        <v>0.16417999026</v>
+        <v>7.923089009793665</v>
       </c>
       <c r="R4">
-        <v>1.47761991234</v>
+        <v>71.30780108814299</v>
       </c>
       <c r="S4">
-        <v>0.002152006773488009</v>
+        <v>0.3888614671764606</v>
       </c>
       <c r="T4">
-        <v>0.002152006773488009</v>
+        <v>0.3888614671764607</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.521235</v>
+        <v>0.408483</v>
       </c>
       <c r="H5">
-        <v>1.563705</v>
+        <v>1.225449</v>
       </c>
       <c r="I5">
-        <v>0.4275250678386636</v>
+        <v>0.3542548486223813</v>
       </c>
       <c r="J5">
-        <v>0.4275250678386636</v>
+        <v>0.3542548486223813</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>33.55049533333333</v>
+        <v>0.3621303333333334</v>
       </c>
       <c r="N5">
-        <v>100.651486</v>
+        <v>1.086391</v>
       </c>
       <c r="O5">
-        <v>0.5361599010305518</v>
+        <v>0.020493845787098</v>
       </c>
       <c r="P5">
-        <v>0.5361599010305518</v>
+        <v>0.020493845787098</v>
       </c>
       <c r="Q5">
-        <v>17.48769243507</v>
+        <v>0.147924084951</v>
       </c>
       <c r="R5">
-        <v>157.38923191563</v>
+        <v>1.331316764559</v>
       </c>
       <c r="S5">
-        <v>0.2292217980604578</v>
+        <v>0.00726004423699883</v>
       </c>
       <c r="T5">
-        <v>0.2292217980604578</v>
+        <v>0.00726004423699883</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,40 +791,40 @@
         <v>1.225449</v>
       </c>
       <c r="I6">
-        <v>0.3350441207630739</v>
+        <v>0.3542548486223813</v>
       </c>
       <c r="J6">
-        <v>0.3350441207630739</v>
+        <v>0.3542548486223813</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>26.50086766666666</v>
+        <v>2.209194333333333</v>
       </c>
       <c r="N6">
-        <v>79.50260299999999</v>
+        <v>6.627583</v>
       </c>
       <c r="O6">
-        <v>0.4235020211837832</v>
+        <v>0.1250237381782363</v>
       </c>
       <c r="P6">
-        <v>0.4235020211837832</v>
+        <v>0.1250237381782363</v>
       </c>
       <c r="Q6">
-        <v>10.825153927083</v>
+        <v>0.9024183288629999</v>
       </c>
       <c r="R6">
-        <v>97.42638534374699</v>
+        <v>8.121764959766999</v>
       </c>
       <c r="S6">
-        <v>0.1418918623289053</v>
+        <v>0.04429026544253534</v>
       </c>
       <c r="T6">
-        <v>0.1418918623289053</v>
+        <v>0.04429026544253534</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,10 +853,10 @@
         <v>1.225449</v>
       </c>
       <c r="I7">
-        <v>0.3350441207630739</v>
+        <v>0.3542548486223813</v>
       </c>
       <c r="J7">
-        <v>0.3350441207630739</v>
+        <v>0.3542548486223813</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.209194333333333</v>
+        <v>15.09887433333333</v>
       </c>
       <c r="N7">
-        <v>6.627583</v>
+        <v>45.296623</v>
       </c>
       <c r="O7">
-        <v>0.03530443897620913</v>
+        <v>0.8544824160346657</v>
       </c>
       <c r="P7">
-        <v>0.03530443897620913</v>
+        <v>0.8544824160346657</v>
       </c>
       <c r="Q7">
-        <v>0.902418328863</v>
+        <v>6.167633484303</v>
       </c>
       <c r="R7">
-        <v>8.121764959767001</v>
+        <v>55.508701358727</v>
       </c>
       <c r="S7">
-        <v>0.01182854471581759</v>
+        <v>0.3027045389428471</v>
       </c>
       <c r="T7">
-        <v>0.01182854471581759</v>
+        <v>0.3027045389428471</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,51 +909,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.408483</v>
+        <v>0.15867</v>
       </c>
       <c r="H8">
-        <v>1.225449</v>
+        <v>0.47601</v>
       </c>
       <c r="I8">
-        <v>0.3350441207630739</v>
+        <v>0.1376057677575645</v>
       </c>
       <c r="J8">
-        <v>0.3350441207630739</v>
+        <v>0.1376057677575646</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3149826666666667</v>
+        <v>0.3621303333333334</v>
       </c>
       <c r="N8">
-        <v>0.944948</v>
+        <v>1.086391</v>
       </c>
       <c r="O8">
-        <v>0.005033638809456007</v>
+        <v>0.020493845787098</v>
       </c>
       <c r="P8">
-        <v>0.005033638809456007</v>
+        <v>0.020493845787098</v>
       </c>
       <c r="Q8">
-        <v>0.128665064628</v>
+        <v>0.05745921999000001</v>
       </c>
       <c r="R8">
-        <v>1.157985581652</v>
+        <v>0.5171329799100001</v>
       </c>
       <c r="S8">
-        <v>0.001686491089153074</v>
+        <v>0.00282007138383875</v>
       </c>
       <c r="T8">
-        <v>0.001686491089153074</v>
+        <v>0.002820071383838751</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.408483</v>
+        <v>0.15867</v>
       </c>
       <c r="H9">
-        <v>1.225449</v>
+        <v>0.47601</v>
       </c>
       <c r="I9">
-        <v>0.3350441207630739</v>
+        <v>0.1376057677575645</v>
       </c>
       <c r="J9">
-        <v>0.3350441207630739</v>
+        <v>0.1376057677575646</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.55049533333333</v>
+        <v>2.209194333333333</v>
       </c>
       <c r="N9">
-        <v>100.651486</v>
+        <v>6.627583</v>
       </c>
       <c r="O9">
-        <v>0.5361599010305518</v>
+        <v>0.1250237381782363</v>
       </c>
       <c r="P9">
-        <v>0.5361599010305518</v>
+        <v>0.1250237381782363</v>
       </c>
       <c r="Q9">
-        <v>13.704806985246</v>
+        <v>0.35053286487</v>
       </c>
       <c r="R9">
-        <v>123.343262867214</v>
+        <v>3.15479578383</v>
       </c>
       <c r="S9">
-        <v>0.1796372226291979</v>
+        <v>0.01720398747993694</v>
       </c>
       <c r="T9">
-        <v>0.1796372226291979</v>
+        <v>0.01720398747993694</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,51 +1033,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.154544</v>
+        <v>0.15867</v>
       </c>
       <c r="H10">
-        <v>0.463632</v>
+        <v>0.47601</v>
       </c>
       <c r="I10">
-        <v>0.1267593965947383</v>
+        <v>0.1376057677575645</v>
       </c>
       <c r="J10">
-        <v>0.1267593965947383</v>
+        <v>0.1376057677575646</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>26.50086766666666</v>
+        <v>15.09887433333333</v>
       </c>
       <c r="N10">
-        <v>79.50260299999999</v>
+        <v>45.296623</v>
       </c>
       <c r="O10">
-        <v>0.4235020211837832</v>
+        <v>0.8544824160346657</v>
       </c>
       <c r="P10">
-        <v>0.4235020211837832</v>
+        <v>0.8544824160346657</v>
       </c>
       <c r="Q10">
-        <v>4.095550092677334</v>
+        <v>2.39573839047</v>
       </c>
       <c r="R10">
-        <v>36.859950834096</v>
+        <v>21.56164551423</v>
       </c>
       <c r="S10">
-        <v>0.05368286066190844</v>
+        <v>0.1175817088937888</v>
       </c>
       <c r="T10">
-        <v>0.05368286066190844</v>
+        <v>0.1175817088937889</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.06117666666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.18353</v>
+      </c>
+      <c r="I11">
+        <v>0.05305515967426276</v>
+      </c>
+      <c r="J11">
+        <v>0.05305515967426277</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G11">
-        <v>0.154544</v>
-      </c>
-      <c r="H11">
-        <v>0.463632</v>
-      </c>
-      <c r="I11">
-        <v>0.1267593965947383</v>
-      </c>
-      <c r="J11">
-        <v>0.1267593965947383</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>2.209194333333333</v>
+        <v>0.3621303333333334</v>
       </c>
       <c r="N11">
-        <v>6.627583</v>
+        <v>1.086391</v>
       </c>
       <c r="O11">
-        <v>0.03530443897620913</v>
+        <v>0.020493845787098</v>
       </c>
       <c r="P11">
-        <v>0.03530443897620913</v>
+        <v>0.020493845787098</v>
       </c>
       <c r="Q11">
-        <v>0.3414177290506667</v>
+        <v>0.02215392669222222</v>
       </c>
       <c r="R11">
-        <v>3.072759561456</v>
+        <v>0.19938534023</v>
       </c>
       <c r="S11">
-        <v>0.004475169381740031</v>
+        <v>0.001087304260574202</v>
       </c>
       <c r="T11">
-        <v>0.004475169381740031</v>
+        <v>0.001087304260574202</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.154544</v>
+        <v>0.06117666666666666</v>
       </c>
       <c r="H12">
-        <v>0.463632</v>
+        <v>0.18353</v>
       </c>
       <c r="I12">
-        <v>0.1267593965947383</v>
+        <v>0.05305515967426276</v>
       </c>
       <c r="J12">
-        <v>0.1267593965947383</v>
+        <v>0.05305515967426277</v>
       </c>
       <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
         <v>1</v>
       </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M12">
-        <v>0.3149826666666667</v>
+        <v>2.209194333333333</v>
       </c>
       <c r="N12">
-        <v>0.944948</v>
+        <v>6.627583</v>
       </c>
       <c r="O12">
-        <v>0.005033638809456007</v>
+        <v>0.1250237381782363</v>
       </c>
       <c r="P12">
-        <v>0.005033638809456007</v>
+        <v>0.1250237381782363</v>
       </c>
       <c r="Q12">
-        <v>0.04867868123733334</v>
+        <v>0.1351511453322222</v>
       </c>
       <c r="R12">
-        <v>0.4381081311360001</v>
+        <v>1.21636030799</v>
       </c>
       <c r="S12">
-        <v>0.0006380610181625005</v>
+        <v>0.006633154392119549</v>
       </c>
       <c r="T12">
-        <v>0.0006380610181625005</v>
+        <v>0.00663315439211955</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.154544</v>
+        <v>0.06117666666666666</v>
       </c>
       <c r="H13">
-        <v>0.463632</v>
+        <v>0.18353</v>
       </c>
       <c r="I13">
-        <v>0.1267593965947383</v>
+        <v>0.05305515967426276</v>
       </c>
       <c r="J13">
-        <v>0.1267593965947383</v>
+        <v>0.05305515967426277</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.55049533333333</v>
+        <v>15.09887433333333</v>
       </c>
       <c r="N13">
-        <v>100.651486</v>
+        <v>45.296623</v>
       </c>
       <c r="O13">
-        <v>0.5361599010305518</v>
+        <v>0.8544824160346657</v>
       </c>
       <c r="P13">
-        <v>0.5361599010305518</v>
+        <v>0.8544824160346657</v>
       </c>
       <c r="Q13">
-        <v>5.185027750794667</v>
+        <v>0.9236988021322221</v>
       </c>
       <c r="R13">
-        <v>46.665249757152</v>
+        <v>8.313289219189999</v>
       </c>
       <c r="S13">
-        <v>0.06796330553292737</v>
+        <v>0.04533470102156901</v>
       </c>
       <c r="T13">
-        <v>0.06796330553292737</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.1349296666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.404789</v>
-      </c>
-      <c r="I14">
-        <v>0.1106714148035242</v>
-      </c>
-      <c r="J14">
-        <v>0.1106714148035242</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>26.50086766666666</v>
-      </c>
-      <c r="N14">
-        <v>79.50260299999999</v>
-      </c>
-      <c r="O14">
-        <v>0.4235020211837832</v>
-      </c>
-      <c r="P14">
-        <v>0.4235020211837832</v>
-      </c>
-      <c r="Q14">
-        <v>3.575753240640778</v>
-      </c>
-      <c r="R14">
-        <v>32.181779165767</v>
-      </c>
-      <c r="S14">
-        <v>0.04686956785656136</v>
-      </c>
-      <c r="T14">
-        <v>0.04686956785656136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.1349296666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.404789</v>
-      </c>
-      <c r="I15">
-        <v>0.1106714148035242</v>
-      </c>
-      <c r="J15">
-        <v>0.1106714148035242</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.209194333333333</v>
-      </c>
-      <c r="N15">
-        <v>6.627583</v>
-      </c>
-      <c r="O15">
-        <v>0.03530443897620913</v>
-      </c>
-      <c r="P15">
-        <v>0.03530443897620913</v>
-      </c>
-      <c r="Q15">
-        <v>0.2980858549985556</v>
-      </c>
-      <c r="R15">
-        <v>2.682772694987</v>
-      </c>
-      <c r="S15">
-        <v>0.003907192210341749</v>
-      </c>
-      <c r="T15">
-        <v>0.003907192210341749</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.1349296666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.404789</v>
-      </c>
-      <c r="I16">
-        <v>0.1106714148035242</v>
-      </c>
-      <c r="J16">
-        <v>0.1106714148035242</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.3149826666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.944948</v>
-      </c>
-      <c r="O16">
-        <v>0.005033638809456007</v>
-      </c>
-      <c r="P16">
-        <v>0.005033638809456007</v>
-      </c>
-      <c r="Q16">
-        <v>0.04250050621911112</v>
-      </c>
-      <c r="R16">
-        <v>0.382504555972</v>
-      </c>
-      <c r="S16">
-        <v>0.0005570799286524234</v>
-      </c>
-      <c r="T16">
-        <v>0.0005570799286524234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.1349296666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.404789</v>
-      </c>
-      <c r="I17">
-        <v>0.1106714148035242</v>
-      </c>
-      <c r="J17">
-        <v>0.1106714148035242</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>33.55049533333333</v>
-      </c>
-      <c r="N17">
-        <v>100.651486</v>
-      </c>
-      <c r="O17">
-        <v>0.5361599010305518</v>
-      </c>
-      <c r="P17">
-        <v>0.5361599010305518</v>
-      </c>
-      <c r="Q17">
-        <v>4.526957151828222</v>
-      </c>
-      <c r="R17">
-        <v>40.742614366454</v>
-      </c>
-      <c r="S17">
-        <v>0.05933757480796868</v>
-      </c>
-      <c r="T17">
-        <v>0.05933757480796868</v>
+        <v>0.04533470102156902</v>
       </c>
     </row>
   </sheetData>
